--- a/biology/Médecine/André_Berge/André_Berge.xlsx
+++ b/biology/Médecine/André_Berge/André_Berge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Berge</t>
+          <t>André_Berge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Berge, né le  24 mai 1902 à Paris 16e et mort le 27 octobre 1995 à Neuilly-sur-Seine[2] est un médecin, psychanalyste et essayiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Berge, né le  24 mai 1902 à Paris 16e et mort le 27 octobre 1995 à Neuilly-sur-Seine est un médecin, psychanalyste et essayiste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Berge</t>
+          <t>André_Berge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de René Berge, ingénieur civil des mines et d'Antoinette Faure[2], et petit-fils de Félix Faure, André Berge est familier des Décades de Pontigny. C'est lui qui retrouve dans les affaires de sa mère les fameux questionnaires de Marcel Proust et qui publie pour la première fois en 1924 les pages remplies par l'auteur lui-même. André Berge rapporte que certaines pages comportent des dates qui s'échelonnent entre 1884 et 1887[3].
-En 1924, il épouse Geneviève Fourcade[2]. Ils sont les parents, entre autres, du mathématicien Claude Berge (1926-2002).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de René Berge, ingénieur civil des mines et d'Antoinette Faure, et petit-fils de Félix Faure, André Berge est familier des Décades de Pontigny. C'est lui qui retrouve dans les affaires de sa mère les fameux questionnaires de Marcel Proust et qui publie pour la première fois en 1924 les pages remplies par l'auteur lui-même. André Berge rapporte que certaines pages comportent des dates qui s'échelonnent entre 1884 et 1887.
+En 1924, il épouse Geneviève Fourcade. Ils sont les parents, entre autres, du mathématicien Claude Berge (1926-2002).
 Il fait partie en 1930 des fondateurs de l'École des parents et éducateurs (EPE) de Paris dont il reste vice-président pratiquement jusqu'à la fin de sa vie. Également directeur médical du Centre psychopédagogique Claude-Bernard de 1946 à 1973 et chargé de cours à l'Institut de psychologie de la Sorbonne de 1961 à 1971, il fonde en 1965 l'Association pour la réadaptation des infirmes mentaux (APRIM).
 Fondateur avec son frère, François Berge, de la revue Les Cahiers du mois en 1924, il est l'auteur de romans (L'Amitié indiscrète, Kra, 1927 ; Les Ailes d’Icare, Cahiers du Sud, 1928), d'un livre de contes pour enfants (Séraphine ou les Ficelles de Paquet-de-nerfs, Flammarion, 1954), d'essais philosophiques (Les Maladies de la vertu, Grasset, 1960) et de diverses études (Les Psycho-thérapies, PUF, 1968). André Berge publie surtout de nombreux articles et ouvrages consacrés à la psychologie et à la psychanalyse de l'enfance, à la psychopédagogie et aux problèmes familiaux (L'Éducation sexuelle chez l'enfant, PUF, 1952 ; Comprendre et éduquer un enfant difficile, Hachette, 1973) qui lui assurèrent une grande notoriété dans ces domaines.
 Il meurt en 1995 et est enterré au côté de son épouse dans le petit cimetière de Saint-Maurice-d'Ételan où Félix Faure avait une propriété.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Berge</t>
+          <t>André_Berge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Amitié indiscrète, Le Sagittaire, 1927.
 Les Ailes d'Icare, Cahiers du Sud, 1928.
